--- a/output/frequencies/VNM_women_2014.xlsx
+++ b/output/frequencies/VNM_women_2014.xlsx
@@ -571,40 +571,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>60.4</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>181.9</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>97.09999999999999</v>
+        <v>19.1</v>
       </c>
       <c r="C12" t="n">
-        <v>244.8</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>19.2</v>
+        <v>60.5</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09999999999999</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="14">
@@ -953,40 +953,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>39.3</v>
+        <v>80</v>
       </c>
       <c r="C11" t="n">
-        <v>181.9</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>80</v>
+        <v>17.4</v>
       </c>
       <c r="C12" t="n">
-        <v>244.8</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>17.5</v>
+        <v>39.4</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09999999999999</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="14">
@@ -1335,40 +1335,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>85.59999999999999</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>181.9</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>100</v>
+        <v>36.2</v>
       </c>
       <c r="C12" t="n">
-        <v>244.8</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>36.4</v>
+        <v>85.8</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09999999999999</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="14">
@@ -1717,40 +1717,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>22.8</v>
+        <v>42.1</v>
       </c>
       <c r="C11" t="n">
-        <v>181.9</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42.1</v>
+        <v>6.6</v>
       </c>
       <c r="C12" t="n">
-        <v>244.8</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.7</v>
+        <v>22.8</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09999999999999</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="14">
@@ -2099,40 +2099,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>82.59999999999999</v>
+        <v>95.2</v>
       </c>
       <c r="C11" t="n">
-        <v>181.9</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>95.2</v>
+        <v>35</v>
       </c>
       <c r="C12" t="n">
-        <v>244.8</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.6</v>
+        <v>82.5</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09999999999999</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="14">
@@ -2368,7 +2368,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5.2</v>
+        <v>5.8</v>
       </c>
       <c r="C2" t="n">
         <v>1464.1</v>
@@ -2381,7 +2381,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5.5</v>
+        <v>6.1</v>
       </c>
       <c r="C3" t="n">
         <v>1036.6</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="C4" t="n">
         <v>427.5</v>
@@ -2407,7 +2407,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.9</v>
+        <v>7.5</v>
       </c>
       <c r="C5" t="n">
         <v>109.2</v>
@@ -2420,7 +2420,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="C6" t="n">
         <v>238.7</v>
@@ -2433,7 +2433,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.1</v>
+        <v>6.8</v>
       </c>
       <c r="C7" t="n">
         <v>300.5</v>
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.6</v>
+        <v>6.4</v>
       </c>
       <c r="C8" t="n">
         <v>230.3</v>
@@ -2459,7 +2459,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>5</v>
+        <v>5.6</v>
       </c>
       <c r="C9" t="n">
         <v>343.1</v>
@@ -2472,7 +2472,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="C10" t="n">
         <v>242.4</v>
@@ -2481,40 +2481,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>181.9</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.7</v>
+        <v>10.5</v>
       </c>
       <c r="C12" t="n">
-        <v>244.8</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09999999999999</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="14">
@@ -2524,7 +2524,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="C14" t="n">
         <v>970.4</v>
@@ -2537,7 +2537,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="C15" t="n">
         <v>292.3</v>
@@ -2550,7 +2550,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.5</v>
+        <v>6.2</v>
       </c>
       <c r="C16" t="n">
         <v>288.1</v>
@@ -2563,7 +2563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.2</v>
+        <v>6.9</v>
       </c>
       <c r="C17" t="n">
         <v>294.2</v>
@@ -2576,7 +2576,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4.7</v>
+        <v>5.2</v>
       </c>
       <c r="C18" t="n">
         <v>314.1</v>
@@ -2589,7 +2589,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="C19" t="n">
         <v>275.4</v>
@@ -2602,7 +2602,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>10.6</v>
+        <v>11.6</v>
       </c>
       <c r="C20" t="n">
         <v>11</v>
@@ -2615,7 +2615,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>4.8</v>
+        <v>5.3</v>
       </c>
       <c r="C21" t="n">
         <v>1214.6</v>
@@ -2628,7 +2628,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.9</v>
+        <v>8.5</v>
       </c>
       <c r="C22" t="n">
         <v>24.8</v>
@@ -2641,7 +2641,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>8.199999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C23" t="n">
         <v>118</v>
@@ -2654,7 +2654,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24" t="n">
         <v>95.7</v>
@@ -2667,7 +2667,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.2</v>
+        <v>5.7</v>
       </c>
       <c r="C25" t="n">
         <v>1130.2</v>
@@ -2680,7 +2680,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.6</v>
+        <v>6.2</v>
       </c>
       <c r="C26" t="n">
         <v>333.9</v>
@@ -2693,7 +2693,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.6</v>
+        <v>6.3</v>
       </c>
       <c r="C27" t="n">
         <v>328.8</v>
@@ -2706,7 +2706,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.1</v>
+        <v>5.7</v>
       </c>
       <c r="C28" t="n">
         <v>1135.3</v>
@@ -2863,40 +2863,40 @@
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: ECE/Primary</t>
+          <t>Mother Edu: Higher</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>58.7</v>
+        <v>55.5</v>
       </c>
       <c r="C11" t="n">
-        <v>181.9</v>
+        <v>244.8</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: Higher</t>
+          <t>Mother Edu: None/ECE</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>55.5</v>
+        <v>63.4</v>
       </c>
       <c r="C12" t="n">
-        <v>244.8</v>
+        <v>67.40000000000001</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>Mother Edu: None</t>
+          <t>Mother Edu: Primary</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>63.8</v>
+        <v>58.8</v>
       </c>
       <c r="C13" t="n">
-        <v>67.09999999999999</v>
+        <v>181.5</v>
       </c>
     </row>
     <row r="14">
